--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20393"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Leaf\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F4F4EF-6D9D-4A48-8D3B-9A281CC0ACE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="servents" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">servents!$A$1:$F$137</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="297">
   <si>
     <t>collectionNo</t>
   </si>
@@ -67,21 +58,39 @@
     <t>Assassin</t>
   </si>
   <si>
+    <t>Grandcaster</t>
+  </si>
+  <si>
     <t>Avenger</t>
   </si>
   <si>
+    <t>Beastii</t>
+  </si>
+  <si>
+    <t>Beasti</t>
+  </si>
+  <si>
     <t>Alterego</t>
   </si>
   <si>
+    <t>Beastiiir</t>
+  </si>
+  <si>
     <t>Foreigner</t>
   </si>
   <si>
     <t>Mooncancer</t>
   </si>
   <si>
+    <t>Beastiiil</t>
+  </si>
+  <si>
     <t>Pretender</t>
   </si>
   <si>
+    <t>Beastiv</t>
+  </si>
+  <si>
     <t>アルトリア・ペンドラゴン</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t>ニコラ・テスラ</t>
   </si>
   <si>
+    <t>ソロモン</t>
+  </si>
+  <si>
     <t>アルジュナ</t>
   </si>
   <si>
@@ -196,10 +208,13 @@
     <t>ケツァル・コアトル</t>
   </si>
   <si>
+    <t>ティアマト</t>
+  </si>
+  <si>
     <t>マーリン</t>
   </si>
   <si>
-    <t>ソロモン</t>
+    <t>ゲーティア</t>
   </si>
   <si>
     <t>宮本武蔵</t>
@@ -226,6 +241,9 @@
     <t>殺生院キアラ</t>
   </si>
   <si>
+    <t>ビーストⅢ／Ｒ</t>
+  </si>
+  <si>
     <t>シェヘラザード</t>
   </si>
   <si>
@@ -304,6 +322,9 @@
     <t>カーマ</t>
   </si>
   <si>
+    <t>ビーストⅢ／L</t>
+  </si>
+  <si>
     <t>司馬懿〔ライネス〕</t>
   </si>
   <si>
@@ -409,6 +430,9 @@
     <t>太公望</t>
   </si>
   <si>
+    <t>ビーストⅣ</t>
+  </si>
+  <si>
     <t>闇のコヤンスカヤ</t>
   </si>
   <si>
@@ -493,6 +517,9 @@
     <t>尼古拉·特斯拉</t>
   </si>
   <si>
+    <t>所羅門</t>
+  </si>
+  <si>
     <t>阿周那</t>
   </si>
   <si>
@@ -559,10 +586,13 @@
     <t>魁札爾·科亞特爾</t>
   </si>
   <si>
+    <t>提亞馬特</t>
+  </si>
+  <si>
     <t>梅林</t>
   </si>
   <si>
-    <t>所羅門</t>
+    <t>蓋提亞</t>
   </si>
   <si>
     <t>宮本武藏</t>
@@ -589,6 +619,9 @@
     <t>瞑生院祈荒</t>
   </si>
   <si>
+    <t>BeastⅢ／R</t>
+  </si>
+  <si>
     <t>山魯佐德</t>
   </si>
   <si>
@@ -658,6 +691,9 @@
     <t>迦摩</t>
   </si>
   <si>
+    <t>BeastⅢ／L</t>
+  </si>
+  <si>
     <t>萊妮絲</t>
   </si>
   <si>
@@ -742,6 +778,9 @@
     <t>出雲阿國</t>
   </si>
   <si>
+    <t>Beast Ⅳ</t>
+  </si>
+  <si>
     <t>暗之高揚斯卡婭</t>
   </si>
   <si>
@@ -788,6 +827,12 @@
   </si>
   <si>
     <t>魁札爾．科亞特爾</t>
+  </si>
+  <si>
+    <t>迪亞馬特</t>
+  </si>
+  <si>
+    <t>蓋堤亞</t>
   </si>
   <si>
     <t>“山之翁”</t>
@@ -865,12 +910,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -878,15 +923,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -932,23 +970,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -990,7 +1020,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1022,27 +1052,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1074,24 +1086,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1267,14 +1261,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1307,13 +1299,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1327,13 +1319,13 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1347,13 +1339,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1367,13 +1359,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1387,13 +1379,13 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1407,13 +1399,13 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1427,13 +1419,13 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1447,13 +1439,13 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F9" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1467,13 +1459,13 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F10" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1487,13 +1479,13 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1507,13 +1499,13 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1527,13 +1519,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1547,13 +1539,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F14" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1567,13 +1559,13 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1587,118 +1579,118 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F16" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F21" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1707,78 +1699,78 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -1787,478 +1779,478 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F32" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F33" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F35" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F36" t="s">
-        <v>149</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F37" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="F38" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F39" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F40" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="F41" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F42" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="F43" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F44" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="F45" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="F46" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F47" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B48">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F48" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B49">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F49" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -2267,218 +2259,218 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F50" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B51">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F51" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F52" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B53">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E53" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F53" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E54" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F54" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B55">
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F55" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B56">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F56" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B57">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E57" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F57" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B58">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F58" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F59" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B60">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F60" t="s">
-        <v>195</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -2487,1221 +2479,1245 @@
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F61" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E62" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F62" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E63" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F63" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B64">
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E64" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F64" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B65">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E65" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F65" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B66">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F66" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B67">
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E67" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F67" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B68">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E68" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F68" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E69" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="F69" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B70">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F70" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E71" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F71" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B72">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E72" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F72" t="s">
-        <v>85</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B73">
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="E73" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B74">
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E74" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F74" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B75">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E75" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B76">
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E76" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B77">
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E77" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B78">
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E78" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="F78" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B79">
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E79" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="F79" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B80">
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E80" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="F80" t="s">
-        <v>267</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B81">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E81" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="F81" t="s">
-        <v>268</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B82">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E82" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F82" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B83">
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E83" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B84">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E84" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="F84" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B85">
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="E85" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="F85" t="s">
-        <v>180</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="B86">
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="E86" t="s">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="F86" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F87" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B88">
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="F88" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B89">
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E89" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="F89" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E90" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F90" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B91">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="F91" t="s">
-        <v>101</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B92">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="F92" t="s">
-        <v>102</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B93">
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F93" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B94">
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F94" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E95" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F95" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E96" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F96" t="s">
-        <v>273</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E97" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="F97" t="s">
-        <v>274</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B98">
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="F98" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
+        <v>278</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" t="s">
+        <v>235</v>
+      </c>
+      <c r="F99" t="s">
         <v>289</v>
-      </c>
-      <c r="B99">
-        <v>5</v>
-      </c>
-      <c r="C99" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" t="s">
-        <v>108</v>
-      </c>
-      <c r="E99" t="s">
-        <v>224</v>
-      </c>
-      <c r="F99" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B100">
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E100" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F100" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B101">
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E101" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="F101" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B102">
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E102" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F102" t="s">
-        <v>227</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B103">
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="E103" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B104">
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E104" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="F104" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B105">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E105" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F105" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B106">
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D106" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E106" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="F106" t="s">
-        <v>115</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B107">
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E107" t="s">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c r="F107" t="s">
-        <v>116</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B108">
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E108" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F108" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B109">
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E109" t="s">
-        <v>231</v>
+        <v>123</v>
+      </c>
+      <c r="F109" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B110">
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E110" t="s">
-        <v>232</v>
+        <v>244</v>
+      </c>
+      <c r="F110" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E111" t="s">
-        <v>233</v>
+        <v>125</v>
+      </c>
+      <c r="F111" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
+        <v>303</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>126</v>
+      </c>
+      <c r="E112" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>305</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" t="s">
+        <v>245</v>
+      </c>
+      <c r="F113" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>306</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>307</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>129</v>
+      </c>
+      <c r="E115" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>309</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>130</v>
+      </c>
+      <c r="E116" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
         <v>312</v>
       </c>
-      <c r="B112">
-        <v>5</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
         <v>12</v>
       </c>
-      <c r="D112" t="s">
-        <v>121</v>
-      </c>
-      <c r="E112" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113">
+      <c r="D117" t="s">
+        <v>131</v>
+      </c>
+      <c r="E117" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
         <v>314</v>
       </c>
-      <c r="B113">
-        <v>5</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
         <v>13</v>
       </c>
-      <c r="D113" t="s">
-        <v>122</v>
-      </c>
-      <c r="E113" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114">
+      <c r="D118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E118" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
         <v>316</v>
       </c>
-      <c r="B114">
-        <v>5</v>
-      </c>
-      <c r="C114" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114" t="s">
-        <v>123</v>
-      </c>
-      <c r="E114" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115">
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" t="s">
+        <v>133</v>
+      </c>
+      <c r="E119" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
         <v>317</v>
       </c>
-      <c r="B115">
-        <v>5</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
         <v>6</v>
       </c>
-      <c r="D115" t="s">
-        <v>79</v>
-      </c>
-      <c r="E115" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116">
+      <c r="D120" t="s">
+        <v>88</v>
+      </c>
+      <c r="E120" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
         <v>321</v>
       </c>
-      <c r="B116">
-        <v>5</v>
-      </c>
-      <c r="C116" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" t="s">
-        <v>92</v>
-      </c>
-      <c r="E116" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117">
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>101</v>
+      </c>
+      <c r="E121" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
         <v>324</v>
       </c>
-      <c r="B117">
-        <v>5</v>
-      </c>
-      <c r="C117" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" t="s">
-        <v>124</v>
-      </c>
-      <c r="E117" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118">
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
         <v>327</v>
       </c>
-      <c r="B118">
-        <v>5</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
         <v>8</v>
       </c>
-      <c r="D118" t="s">
-        <v>125</v>
-      </c>
-      <c r="E118" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119">
+      <c r="D123" t="s">
+        <v>135</v>
+      </c>
+      <c r="E123" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
         <v>329</v>
       </c>
-      <c r="B119">
-        <v>5</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
         <v>12</v>
       </c>
-      <c r="D119" t="s">
-        <v>126</v>
-      </c>
-      <c r="E119" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120">
+      <c r="D124" t="s">
+        <v>136</v>
+      </c>
+      <c r="E124" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
         <v>331</v>
-      </c>
-      <c r="B120">
-        <v>5</v>
-      </c>
-      <c r="C120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s">
-        <v>127</v>
-      </c>
-      <c r="E120" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121">
-        <v>334</v>
-      </c>
-      <c r="B121">
-        <v>5</v>
-      </c>
-      <c r="C121" t="s">
-        <v>16</v>
-      </c>
-      <c r="D121" t="s">
-        <v>128</v>
-      </c>
-      <c r="E121" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122">
-        <v>336</v>
-      </c>
-      <c r="B122">
-        <v>5</v>
-      </c>
-      <c r="C122" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123">
-        <v>337</v>
-      </c>
-      <c r="B123">
-        <v>5</v>
-      </c>
-      <c r="C123" t="s">
-        <v>6</v>
-      </c>
-      <c r="D123" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124">
-        <v>339</v>
-      </c>
-      <c r="B124">
-        <v>5</v>
-      </c>
-      <c r="C124" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125">
-        <v>342</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -3710,110 +3726,119 @@
         <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>137</v>
+      </c>
+      <c r="E125" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B126">
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D126" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="E126" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B127">
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>139</v>
+      </c>
+      <c r="E127" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B128">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B131">
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B132">
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D132" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B133">
         <v>5</v>
@@ -3822,69 +3847,150 @@
         <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B134">
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B136">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
+        <v>353</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>355</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>357</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>362</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>365</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>368</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
         <v>369</v>
       </c>
-      <c r="B137">
-        <v>5</v>
-      </c>
-      <c r="C137" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" t="s">
-        <v>141</v>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F137" xr:uid="{7996FCAE-DCB1-4BC0-BD14-3DD5C92A4534}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="298">
   <si>
     <t>collectionNo</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>言峰綺礼</t>
+  </si>
+  <si>
+    <t>ニトクリス〔オルタ〕</t>
   </si>
   <si>
     <t>阿爾託莉雅·潘德拉貢</t>
@@ -1262,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1302,10 +1305,10 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1322,10 +1325,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1342,10 +1345,10 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1362,10 +1365,10 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1402,10 +1405,10 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1422,10 +1425,10 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1442,10 +1445,10 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1462,10 +1465,10 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1482,10 +1485,10 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1502,10 +1505,10 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1522,10 +1525,10 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1542,10 +1545,10 @@
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1562,10 +1565,10 @@
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1582,10 +1585,10 @@
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1602,10 +1605,10 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1622,10 +1625,10 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1642,10 +1645,10 @@
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1662,10 +1665,10 @@
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1682,10 +1685,10 @@
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1702,10 +1705,10 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1722,10 +1725,10 @@
         <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1762,10 +1765,10 @@
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1782,10 +1785,10 @@
         <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1802,10 +1805,10 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1822,10 +1825,10 @@
         <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1842,10 +1845,10 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1862,10 +1865,10 @@
         <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1882,10 +1885,10 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1902,10 +1905,10 @@
         <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1922,10 +1925,10 @@
         <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1942,10 +1945,10 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1962,10 +1965,10 @@
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1982,10 +1985,10 @@
         <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2002,10 +2005,10 @@
         <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2022,10 +2025,10 @@
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2042,10 +2045,10 @@
         <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2062,10 +2065,10 @@
         <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2082,10 +2085,10 @@
         <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2102,10 +2105,10 @@
         <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2122,10 +2125,10 @@
         <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2142,10 +2145,10 @@
         <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2162,10 +2165,10 @@
         <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2182,10 +2185,10 @@
         <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2202,10 +2205,10 @@
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2222,10 +2225,10 @@
         <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2242,10 +2245,10 @@
         <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F49" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2262,10 +2265,10 @@
         <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2282,10 +2285,10 @@
         <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F51" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2302,10 +2305,10 @@
         <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F52" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2322,10 +2325,10 @@
         <v>72</v>
       </c>
       <c r="E53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2342,10 +2345,10 @@
         <v>73</v>
       </c>
       <c r="E54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2362,10 +2365,10 @@
         <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F55" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2382,10 +2385,10 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2402,10 +2405,10 @@
         <v>76</v>
       </c>
       <c r="E57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2422,10 +2425,10 @@
         <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2442,10 +2445,10 @@
         <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F59" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2462,10 +2465,10 @@
         <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2482,10 +2485,10 @@
         <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2502,10 +2505,10 @@
         <v>81</v>
       </c>
       <c r="E62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F62" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2522,10 +2525,10 @@
         <v>82</v>
       </c>
       <c r="E63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2542,10 +2545,10 @@
         <v>83</v>
       </c>
       <c r="E64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2562,10 +2565,10 @@
         <v>84</v>
       </c>
       <c r="E65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2582,10 +2585,10 @@
         <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2602,10 +2605,10 @@
         <v>86</v>
       </c>
       <c r="E67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2622,10 +2625,10 @@
         <v>87</v>
       </c>
       <c r="E68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F68" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2642,10 +2645,10 @@
         <v>88</v>
       </c>
       <c r="E69" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F69" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2662,10 +2665,10 @@
         <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2682,10 +2685,10 @@
         <v>90</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2702,10 +2705,10 @@
         <v>91</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F72" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2722,10 +2725,10 @@
         <v>31</v>
       </c>
       <c r="E73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2742,10 +2745,10 @@
         <v>92</v>
       </c>
       <c r="E74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2762,10 +2765,10 @@
         <v>93</v>
       </c>
       <c r="E75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2782,7 +2785,7 @@
         <v>94</v>
       </c>
       <c r="E76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F76" t="s">
         <v>94</v>
@@ -2802,7 +2805,7 @@
         <v>95</v>
       </c>
       <c r="E77" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F77" t="s">
         <v>95</v>
@@ -2822,10 +2825,10 @@
         <v>96</v>
       </c>
       <c r="E78" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F78" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2902,10 +2905,10 @@
         <v>100</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2922,10 +2925,10 @@
         <v>101</v>
       </c>
       <c r="E83" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F83" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2942,10 +2945,10 @@
         <v>102</v>
       </c>
       <c r="E84" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F84" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2962,10 +2965,10 @@
         <v>103</v>
       </c>
       <c r="E85" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F85" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2982,10 +2985,10 @@
         <v>104</v>
       </c>
       <c r="E86" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F86" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3002,10 +3005,10 @@
         <v>105</v>
       </c>
       <c r="E87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3042,10 +3045,10 @@
         <v>58</v>
       </c>
       <c r="E89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F89" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3062,10 +3065,10 @@
         <v>67</v>
       </c>
       <c r="E90" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F90" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3082,10 +3085,10 @@
         <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F91" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3102,10 +3105,10 @@
         <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F92" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3122,10 +3125,10 @@
         <v>108</v>
       </c>
       <c r="E93" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F93" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3142,10 +3145,10 @@
         <v>109</v>
       </c>
       <c r="E94" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F94" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3162,10 +3165,10 @@
         <v>110</v>
       </c>
       <c r="E95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3182,7 +3185,7 @@
         <v>111</v>
       </c>
       <c r="E96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F96" t="s">
         <v>111</v>
@@ -3222,10 +3225,10 @@
         <v>113</v>
       </c>
       <c r="E98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3242,10 +3245,10 @@
         <v>114</v>
       </c>
       <c r="E99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F99" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3262,10 +3265,10 @@
         <v>115</v>
       </c>
       <c r="E100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F100" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3282,10 +3285,10 @@
         <v>116</v>
       </c>
       <c r="E101" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F101" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3302,10 +3305,10 @@
         <v>117</v>
       </c>
       <c r="E102" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F102" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3322,10 +3325,10 @@
         <v>74</v>
       </c>
       <c r="E103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3342,10 +3345,10 @@
         <v>118</v>
       </c>
       <c r="E104" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F104" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3362,10 +3365,10 @@
         <v>119</v>
       </c>
       <c r="E105" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F105" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3382,10 +3385,10 @@
         <v>120</v>
       </c>
       <c r="E106" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F106" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3402,10 +3405,10 @@
         <v>121</v>
       </c>
       <c r="E107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3422,10 +3425,10 @@
         <v>122</v>
       </c>
       <c r="E108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3462,10 +3465,10 @@
         <v>124</v>
       </c>
       <c r="E110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F110" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3522,10 +3525,10 @@
         <v>127</v>
       </c>
       <c r="E113" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F113" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3542,7 +3545,7 @@
         <v>128</v>
       </c>
       <c r="E114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3559,7 +3562,7 @@
         <v>129</v>
       </c>
       <c r="E115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3576,7 +3579,7 @@
         <v>130</v>
       </c>
       <c r="E116" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3593,7 +3596,7 @@
         <v>131</v>
       </c>
       <c r="E117" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3610,7 +3613,7 @@
         <v>132</v>
       </c>
       <c r="E118" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3627,7 +3630,7 @@
         <v>133</v>
       </c>
       <c r="E119" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3644,7 +3647,7 @@
         <v>88</v>
       </c>
       <c r="E120" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3661,7 +3664,7 @@
         <v>101</v>
       </c>
       <c r="E121" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3678,7 +3681,7 @@
         <v>134</v>
       </c>
       <c r="E122" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3695,7 +3698,7 @@
         <v>135</v>
       </c>
       <c r="E123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3746,7 +3749,7 @@
         <v>138</v>
       </c>
       <c r="E126" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3763,7 +3766,7 @@
         <v>139</v>
       </c>
       <c r="E127" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3988,6 +3991,20 @@
       </c>
       <c r="D143" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>370</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="299">
   <si>
     <t>collectionNo</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>ニトクリス〔オルタ〕</t>
+  </si>
+  <si>
+    <t>テスカトリポカ</t>
   </si>
   <si>
     <t>阿爾託莉雅·潘德拉貢</t>
@@ -1265,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1305,10 +1308,10 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1325,10 +1328,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1345,10 +1348,10 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1365,10 +1368,10 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1405,10 +1408,10 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1425,10 +1428,10 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1445,10 +1448,10 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1465,10 +1468,10 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1485,10 +1488,10 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1505,10 +1508,10 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1525,10 +1528,10 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1545,10 +1548,10 @@
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1565,10 +1568,10 @@
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1585,10 +1588,10 @@
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1605,10 +1608,10 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1625,10 +1628,10 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1645,10 +1648,10 @@
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1665,10 +1668,10 @@
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1685,10 +1688,10 @@
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1705,10 +1708,10 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1725,10 +1728,10 @@
         <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1765,10 +1768,10 @@
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1785,10 +1788,10 @@
         <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1805,10 +1808,10 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1825,10 +1828,10 @@
         <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1845,10 +1848,10 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1865,10 +1868,10 @@
         <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1885,10 +1888,10 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1905,10 +1908,10 @@
         <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1925,10 +1928,10 @@
         <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1945,10 +1948,10 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1965,10 +1968,10 @@
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1985,10 +1988,10 @@
         <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2005,10 +2008,10 @@
         <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2025,10 +2028,10 @@
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2045,10 +2048,10 @@
         <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2065,10 +2068,10 @@
         <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2085,10 +2088,10 @@
         <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2105,10 +2108,10 @@
         <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2125,10 +2128,10 @@
         <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F43" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2145,10 +2148,10 @@
         <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2165,10 +2168,10 @@
         <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2185,10 +2188,10 @@
         <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2205,10 +2208,10 @@
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2225,10 +2228,10 @@
         <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2245,10 +2248,10 @@
         <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F49" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2265,10 +2268,10 @@
         <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F50" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2285,10 +2288,10 @@
         <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F51" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2305,10 +2308,10 @@
         <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F52" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2325,10 +2328,10 @@
         <v>72</v>
       </c>
       <c r="E53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2345,10 +2348,10 @@
         <v>73</v>
       </c>
       <c r="E54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2365,10 +2368,10 @@
         <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F55" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2385,10 +2388,10 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2405,10 +2408,10 @@
         <v>76</v>
       </c>
       <c r="E57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F57" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2425,10 +2428,10 @@
         <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F58" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2445,10 +2448,10 @@
         <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F59" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2465,10 +2468,10 @@
         <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2485,10 +2488,10 @@
         <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2505,10 +2508,10 @@
         <v>81</v>
       </c>
       <c r="E62" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2525,10 +2528,10 @@
         <v>82</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2545,10 +2548,10 @@
         <v>83</v>
       </c>
       <c r="E64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2565,10 +2568,10 @@
         <v>84</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F65" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2585,10 +2588,10 @@
         <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2605,10 +2608,10 @@
         <v>86</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2625,10 +2628,10 @@
         <v>87</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F68" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2645,10 +2648,10 @@
         <v>88</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F69" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2665,10 +2668,10 @@
         <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2685,10 +2688,10 @@
         <v>90</v>
       </c>
       <c r="E71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2705,10 +2708,10 @@
         <v>91</v>
       </c>
       <c r="E72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F72" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2725,10 +2728,10 @@
         <v>31</v>
       </c>
       <c r="E73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2745,10 +2748,10 @@
         <v>92</v>
       </c>
       <c r="E74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2765,10 +2768,10 @@
         <v>93</v>
       </c>
       <c r="E75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2785,7 +2788,7 @@
         <v>94</v>
       </c>
       <c r="E76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F76" t="s">
         <v>94</v>
@@ -2805,7 +2808,7 @@
         <v>95</v>
       </c>
       <c r="E77" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F77" t="s">
         <v>95</v>
@@ -2825,10 +2828,10 @@
         <v>96</v>
       </c>
       <c r="E78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2905,10 +2908,10 @@
         <v>100</v>
       </c>
       <c r="E82" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F82" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2925,10 +2928,10 @@
         <v>101</v>
       </c>
       <c r="E83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2945,10 +2948,10 @@
         <v>102</v>
       </c>
       <c r="E84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2965,10 +2968,10 @@
         <v>103</v>
       </c>
       <c r="E85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F85" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2985,10 +2988,10 @@
         <v>104</v>
       </c>
       <c r="E86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F86" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3005,10 +3008,10 @@
         <v>105</v>
       </c>
       <c r="E87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3045,10 +3048,10 @@
         <v>58</v>
       </c>
       <c r="E89" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3065,10 +3068,10 @@
         <v>67</v>
       </c>
       <c r="E90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3085,10 +3088,10 @@
         <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3105,10 +3108,10 @@
         <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F92" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3125,10 +3128,10 @@
         <v>108</v>
       </c>
       <c r="E93" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F93" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3145,10 +3148,10 @@
         <v>109</v>
       </c>
       <c r="E94" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F94" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3165,10 +3168,10 @@
         <v>110</v>
       </c>
       <c r="E95" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F95" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3185,7 +3188,7 @@
         <v>111</v>
       </c>
       <c r="E96" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F96" t="s">
         <v>111</v>
@@ -3225,10 +3228,10 @@
         <v>113</v>
       </c>
       <c r="E98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3245,10 +3248,10 @@
         <v>114</v>
       </c>
       <c r="E99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F99" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3265,10 +3268,10 @@
         <v>115</v>
       </c>
       <c r="E100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F100" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3285,10 +3288,10 @@
         <v>116</v>
       </c>
       <c r="E101" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F101" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3305,10 +3308,10 @@
         <v>117</v>
       </c>
       <c r="E102" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F102" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3325,10 +3328,10 @@
         <v>74</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3345,10 +3348,10 @@
         <v>118</v>
       </c>
       <c r="E104" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F104" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3365,10 +3368,10 @@
         <v>119</v>
       </c>
       <c r="E105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3385,10 +3388,10 @@
         <v>120</v>
       </c>
       <c r="E106" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F106" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3405,10 +3408,10 @@
         <v>121</v>
       </c>
       <c r="E107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3425,10 +3428,10 @@
         <v>122</v>
       </c>
       <c r="E108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3465,10 +3468,10 @@
         <v>124</v>
       </c>
       <c r="E110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F110" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3525,10 +3528,10 @@
         <v>127</v>
       </c>
       <c r="E113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F113" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3545,7 +3548,10 @@
         <v>128</v>
       </c>
       <c r="E114" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="F114" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3562,7 +3568,7 @@
         <v>129</v>
       </c>
       <c r="E115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3579,7 +3585,7 @@
         <v>130</v>
       </c>
       <c r="E116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3596,7 +3602,7 @@
         <v>131</v>
       </c>
       <c r="E117" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3613,7 +3619,7 @@
         <v>132</v>
       </c>
       <c r="E118" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3630,7 +3636,7 @@
         <v>133</v>
       </c>
       <c r="E119" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3647,7 +3653,7 @@
         <v>88</v>
       </c>
       <c r="E120" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3664,7 +3670,7 @@
         <v>101</v>
       </c>
       <c r="E121" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3681,7 +3687,7 @@
         <v>134</v>
       </c>
       <c r="E122" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3698,7 +3704,7 @@
         <v>135</v>
       </c>
       <c r="E123" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3749,7 +3755,7 @@
         <v>138</v>
       </c>
       <c r="E126" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3766,7 +3772,7 @@
         <v>139</v>
       </c>
       <c r="E127" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4005,6 +4011,20 @@
       </c>
       <c r="D144" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>371</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="302">
   <si>
     <t>collectionNo</t>
   </si>
@@ -481,6 +481,12 @@
     <t>テスカトリポカ</t>
   </si>
   <si>
+    <t>ククルカン</t>
+  </si>
+  <si>
+    <t>女教皇ヨハンナ</t>
+  </si>
+  <si>
     <t>阿爾託莉雅·潘德拉貢</t>
   </si>
   <si>
@@ -788,6 +794,9 @@
   </si>
   <si>
     <t>暗之高揚斯卡婭</t>
+  </si>
+  <si>
+    <t>馬納南·麥克·利爾〔巴澤特〕</t>
   </si>
   <si>
     <t>阿爾托莉亞．潘德拉剛</t>
@@ -1268,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1308,10 +1317,10 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1328,10 +1337,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1348,10 +1357,10 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1368,10 +1377,10 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1408,10 +1417,10 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1428,10 +1437,10 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1448,10 +1457,10 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1468,10 +1477,10 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1488,10 +1497,10 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1508,10 +1517,10 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1528,10 +1537,10 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1548,10 +1557,10 @@
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1568,10 +1577,10 @@
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1588,10 +1597,10 @@
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1608,10 +1617,10 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1628,10 +1637,10 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1648,10 +1657,10 @@
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1668,10 +1677,10 @@
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1688,10 +1697,10 @@
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1708,10 +1717,10 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F22" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1728,10 +1737,10 @@
         <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1768,10 +1777,10 @@
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1788,10 +1797,10 @@
         <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1808,10 +1817,10 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1828,10 +1837,10 @@
         <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1848,10 +1857,10 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1868,10 +1877,10 @@
         <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1888,10 +1897,10 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1908,10 +1917,10 @@
         <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1928,10 +1937,10 @@
         <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1948,10 +1957,10 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1968,10 +1977,10 @@
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1988,10 +1997,10 @@
         <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F36" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2008,10 +2017,10 @@
         <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2028,10 +2037,10 @@
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2048,10 +2057,10 @@
         <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F39" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2068,10 +2077,10 @@
         <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F40" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2088,10 +2097,10 @@
         <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F41" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2108,10 +2117,10 @@
         <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F42" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2128,10 +2137,10 @@
         <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F43" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2148,10 +2157,10 @@
         <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F44" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2168,10 +2177,10 @@
         <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F45" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2188,10 +2197,10 @@
         <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F46" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2208,10 +2217,10 @@
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2228,10 +2237,10 @@
         <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2248,10 +2257,10 @@
         <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F49" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2268,10 +2277,10 @@
         <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F50" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2288,10 +2297,10 @@
         <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F51" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2308,10 +2317,10 @@
         <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F52" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2328,10 +2337,10 @@
         <v>72</v>
       </c>
       <c r="E53" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F53" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2348,10 +2357,10 @@
         <v>73</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F54" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2368,10 +2377,10 @@
         <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F55" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2388,10 +2397,10 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F56" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2408,10 +2417,10 @@
         <v>76</v>
       </c>
       <c r="E57" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F57" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2428,10 +2437,10 @@
         <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F58" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2448,10 +2457,10 @@
         <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F59" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2468,10 +2477,10 @@
         <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F60" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2488,10 +2497,10 @@
         <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F61" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2508,10 +2517,10 @@
         <v>81</v>
       </c>
       <c r="E62" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F62" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2528,10 +2537,10 @@
         <v>82</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F63" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2548,10 +2557,10 @@
         <v>83</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F64" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2568,10 +2577,10 @@
         <v>84</v>
       </c>
       <c r="E65" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F65" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2588,10 +2597,10 @@
         <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F66" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2608,10 +2617,10 @@
         <v>86</v>
       </c>
       <c r="E67" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F67" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2628,10 +2637,10 @@
         <v>87</v>
       </c>
       <c r="E68" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F68" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2648,10 +2657,10 @@
         <v>88</v>
       </c>
       <c r="E69" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F69" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2668,10 +2677,10 @@
         <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F70" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2688,10 +2697,10 @@
         <v>90</v>
       </c>
       <c r="E71" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F71" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2708,10 +2717,10 @@
         <v>91</v>
       </c>
       <c r="E72" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F72" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2728,10 +2737,10 @@
         <v>31</v>
       </c>
       <c r="E73" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F73" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2748,10 +2757,10 @@
         <v>92</v>
       </c>
       <c r="E74" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F74" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2768,10 +2777,10 @@
         <v>93</v>
       </c>
       <c r="E75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2788,7 +2797,7 @@
         <v>94</v>
       </c>
       <c r="E76" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F76" t="s">
         <v>94</v>
@@ -2808,7 +2817,7 @@
         <v>95</v>
       </c>
       <c r="E77" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F77" t="s">
         <v>95</v>
@@ -2828,10 +2837,10 @@
         <v>96</v>
       </c>
       <c r="E78" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F78" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2908,10 +2917,10 @@
         <v>100</v>
       </c>
       <c r="E82" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F82" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2928,10 +2937,10 @@
         <v>101</v>
       </c>
       <c r="E83" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F83" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2948,10 +2957,10 @@
         <v>102</v>
       </c>
       <c r="E84" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F84" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2968,10 +2977,10 @@
         <v>103</v>
       </c>
       <c r="E85" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F85" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2988,10 +2997,10 @@
         <v>104</v>
       </c>
       <c r="E86" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F86" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3008,10 +3017,10 @@
         <v>105</v>
       </c>
       <c r="E87" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F87" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3048,10 +3057,10 @@
         <v>58</v>
       </c>
       <c r="E89" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F89" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3068,10 +3077,10 @@
         <v>67</v>
       </c>
       <c r="E90" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F90" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3088,10 +3097,10 @@
         <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F91" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3108,10 +3117,10 @@
         <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F92" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3128,10 +3137,10 @@
         <v>108</v>
       </c>
       <c r="E93" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F93" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3148,10 +3157,10 @@
         <v>109</v>
       </c>
       <c r="E94" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F94" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3168,10 +3177,10 @@
         <v>110</v>
       </c>
       <c r="E95" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F95" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3188,7 +3197,7 @@
         <v>111</v>
       </c>
       <c r="E96" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F96" t="s">
         <v>111</v>
@@ -3228,10 +3237,10 @@
         <v>113</v>
       </c>
       <c r="E98" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F98" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3248,10 +3257,10 @@
         <v>114</v>
       </c>
       <c r="E99" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F99" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3268,10 +3277,10 @@
         <v>115</v>
       </c>
       <c r="E100" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F100" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3288,10 +3297,10 @@
         <v>116</v>
       </c>
       <c r="E101" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F101" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3308,10 +3317,10 @@
         <v>117</v>
       </c>
       <c r="E102" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F102" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3328,10 +3337,10 @@
         <v>74</v>
       </c>
       <c r="E103" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F103" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3348,10 +3357,10 @@
         <v>118</v>
       </c>
       <c r="E104" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F104" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3368,10 +3377,10 @@
         <v>119</v>
       </c>
       <c r="E105" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F105" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3388,10 +3397,10 @@
         <v>120</v>
       </c>
       <c r="E106" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F106" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3408,10 +3417,10 @@
         <v>121</v>
       </c>
       <c r="E107" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F107" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3428,10 +3437,10 @@
         <v>122</v>
       </c>
       <c r="E108" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F108" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3468,10 +3477,10 @@
         <v>124</v>
       </c>
       <c r="E110" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F110" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3528,10 +3537,10 @@
         <v>127</v>
       </c>
       <c r="E113" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F113" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3548,10 +3557,10 @@
         <v>128</v>
       </c>
       <c r="E114" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F114" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3568,7 +3577,7 @@
         <v>129</v>
       </c>
       <c r="E115" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3585,7 +3594,7 @@
         <v>130</v>
       </c>
       <c r="E116" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3602,7 +3611,7 @@
         <v>131</v>
       </c>
       <c r="E117" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3619,7 +3628,7 @@
         <v>132</v>
       </c>
       <c r="E118" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3636,7 +3645,7 @@
         <v>133</v>
       </c>
       <c r="E119" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3653,7 +3662,7 @@
         <v>88</v>
       </c>
       <c r="E120" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3670,7 +3679,7 @@
         <v>101</v>
       </c>
       <c r="E121" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3687,7 +3696,7 @@
         <v>134</v>
       </c>
       <c r="E122" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3704,7 +3713,7 @@
         <v>135</v>
       </c>
       <c r="E123" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3755,7 +3764,7 @@
         <v>138</v>
       </c>
       <c r="E126" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3772,7 +3781,7 @@
         <v>139</v>
       </c>
       <c r="E127" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3788,6 +3797,9 @@
       <c r="D128" t="s">
         <v>140</v>
       </c>
+      <c r="E128" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
@@ -4025,6 +4037,34 @@
       </c>
       <c r="D145" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>373</v>
+      </c>
+      <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>374</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="303">
   <si>
     <t>collectionNo</t>
   </si>
@@ -920,6 +920,9 @@
   </si>
   <si>
     <t>埃莫〔卡蓮〕</t>
+  </si>
+  <si>
+    <t>Ms.克蘭</t>
   </si>
 </sst>
 </file>
@@ -3579,6 +3582,9 @@
       <c r="E115" t="s">
         <v>251</v>
       </c>
+      <c r="F115" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">

--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="304">
   <si>
     <t>collectionNo</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>女教皇ヨハンナ</t>
+  </si>
+  <si>
+    <t>高杉晋作</t>
   </si>
   <si>
     <t>阿爾託莉雅·潘德拉貢</t>
@@ -1280,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1320,10 +1323,10 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1340,10 +1343,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1360,10 +1363,10 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1380,10 +1383,10 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1420,10 +1423,10 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1440,10 +1443,10 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1460,10 +1463,10 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1480,10 +1483,10 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1500,10 +1503,10 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1520,10 +1523,10 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1540,10 +1543,10 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1560,10 +1563,10 @@
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1580,10 +1583,10 @@
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1600,10 +1603,10 @@
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1620,10 +1623,10 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1640,10 +1643,10 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1660,10 +1663,10 @@
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1680,10 +1683,10 @@
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1700,10 +1703,10 @@
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1720,10 +1723,10 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1740,10 +1743,10 @@
         <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1780,10 +1783,10 @@
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1800,10 +1803,10 @@
         <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1820,10 +1823,10 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1840,10 +1843,10 @@
         <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1860,10 +1863,10 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1880,10 +1883,10 @@
         <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1900,10 +1903,10 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1920,10 +1923,10 @@
         <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1940,10 +1943,10 @@
         <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1960,10 +1963,10 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F34" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1980,10 +1983,10 @@
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2000,10 +2003,10 @@
         <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F36" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2020,10 +2023,10 @@
         <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2040,10 +2043,10 @@
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2060,10 +2063,10 @@
         <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2080,10 +2083,10 @@
         <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2100,10 +2103,10 @@
         <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2120,10 +2123,10 @@
         <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2140,10 +2143,10 @@
         <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2160,10 +2163,10 @@
         <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2180,10 +2183,10 @@
         <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2200,10 +2203,10 @@
         <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2220,10 +2223,10 @@
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2240,10 +2243,10 @@
         <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2260,10 +2263,10 @@
         <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2280,10 +2283,10 @@
         <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2300,10 +2303,10 @@
         <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F51" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2320,10 +2323,10 @@
         <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F52" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2340,10 +2343,10 @@
         <v>72</v>
       </c>
       <c r="E53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2360,10 +2363,10 @@
         <v>73</v>
       </c>
       <c r="E54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2380,10 +2383,10 @@
         <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F55" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2400,10 +2403,10 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2420,10 +2423,10 @@
         <v>76</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2440,10 +2443,10 @@
         <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2460,10 +2463,10 @@
         <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F59" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2480,10 +2483,10 @@
         <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F60" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2500,10 +2503,10 @@
         <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2520,10 +2523,10 @@
         <v>81</v>
       </c>
       <c r="E62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F62" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2540,10 +2543,10 @@
         <v>82</v>
       </c>
       <c r="E63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2560,10 +2563,10 @@
         <v>83</v>
       </c>
       <c r="E64" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F64" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2580,10 +2583,10 @@
         <v>84</v>
       </c>
       <c r="E65" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F65" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2600,10 +2603,10 @@
         <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F66" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2620,10 +2623,10 @@
         <v>86</v>
       </c>
       <c r="E67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2640,10 +2643,10 @@
         <v>87</v>
       </c>
       <c r="E68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F68" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2660,10 +2663,10 @@
         <v>88</v>
       </c>
       <c r="E69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2680,10 +2683,10 @@
         <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2700,10 +2703,10 @@
         <v>90</v>
       </c>
       <c r="E71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2720,10 +2723,10 @@
         <v>91</v>
       </c>
       <c r="E72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2740,10 +2743,10 @@
         <v>31</v>
       </c>
       <c r="E73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2760,10 +2763,10 @@
         <v>92</v>
       </c>
       <c r="E74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2780,10 +2783,10 @@
         <v>93</v>
       </c>
       <c r="E75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2800,7 +2803,7 @@
         <v>94</v>
       </c>
       <c r="E76" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F76" t="s">
         <v>94</v>
@@ -2820,7 +2823,7 @@
         <v>95</v>
       </c>
       <c r="E77" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F77" t="s">
         <v>95</v>
@@ -2840,10 +2843,10 @@
         <v>96</v>
       </c>
       <c r="E78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2920,10 +2923,10 @@
         <v>100</v>
       </c>
       <c r="E82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2940,10 +2943,10 @@
         <v>101</v>
       </c>
       <c r="E83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2960,10 +2963,10 @@
         <v>102</v>
       </c>
       <c r="E84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2980,10 +2983,10 @@
         <v>103</v>
       </c>
       <c r="E85" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F85" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3000,10 +3003,10 @@
         <v>104</v>
       </c>
       <c r="E86" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3020,10 +3023,10 @@
         <v>105</v>
       </c>
       <c r="E87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3060,10 +3063,10 @@
         <v>58</v>
       </c>
       <c r="E89" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3080,10 +3083,10 @@
         <v>67</v>
       </c>
       <c r="E90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3100,10 +3103,10 @@
         <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F91" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3120,10 +3123,10 @@
         <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F92" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3140,10 +3143,10 @@
         <v>108</v>
       </c>
       <c r="E93" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F93" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3160,10 +3163,10 @@
         <v>109</v>
       </c>
       <c r="E94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F94" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3180,10 +3183,10 @@
         <v>110</v>
       </c>
       <c r="E95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3200,7 +3203,7 @@
         <v>111</v>
       </c>
       <c r="E96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F96" t="s">
         <v>111</v>
@@ -3240,10 +3243,10 @@
         <v>113</v>
       </c>
       <c r="E98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3260,10 +3263,10 @@
         <v>114</v>
       </c>
       <c r="E99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F99" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3280,10 +3283,10 @@
         <v>115</v>
       </c>
       <c r="E100" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F100" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3300,10 +3303,10 @@
         <v>116</v>
       </c>
       <c r="E101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F101" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3320,10 +3323,10 @@
         <v>117</v>
       </c>
       <c r="E102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F102" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3340,10 +3343,10 @@
         <v>74</v>
       </c>
       <c r="E103" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F103" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3360,10 +3363,10 @@
         <v>118</v>
       </c>
       <c r="E104" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F104" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3380,10 +3383,10 @@
         <v>119</v>
       </c>
       <c r="E105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3400,10 +3403,10 @@
         <v>120</v>
       </c>
       <c r="E106" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F106" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3420,10 +3423,10 @@
         <v>121</v>
       </c>
       <c r="E107" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F107" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3440,10 +3443,10 @@
         <v>122</v>
       </c>
       <c r="E108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3480,10 +3483,10 @@
         <v>124</v>
       </c>
       <c r="E110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F110" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3540,10 +3543,10 @@
         <v>127</v>
       </c>
       <c r="E113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F113" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3560,10 +3563,10 @@
         <v>128</v>
       </c>
       <c r="E114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3580,10 +3583,10 @@
         <v>129</v>
       </c>
       <c r="E115" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F115" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3600,7 +3603,7 @@
         <v>130</v>
       </c>
       <c r="E116" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3617,7 +3620,7 @@
         <v>131</v>
       </c>
       <c r="E117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3634,7 +3637,7 @@
         <v>132</v>
       </c>
       <c r="E118" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3651,7 +3654,7 @@
         <v>133</v>
       </c>
       <c r="E119" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3668,7 +3671,7 @@
         <v>88</v>
       </c>
       <c r="E120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3685,7 +3688,7 @@
         <v>101</v>
       </c>
       <c r="E121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3702,7 +3705,7 @@
         <v>134</v>
       </c>
       <c r="E122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3719,7 +3722,7 @@
         <v>135</v>
       </c>
       <c r="E123" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3770,7 +3773,7 @@
         <v>138</v>
       </c>
       <c r="E126" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3787,7 +3790,7 @@
         <v>139</v>
       </c>
       <c r="E127" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3804,7 +3807,7 @@
         <v>140</v>
       </c>
       <c r="E128" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4071,6 +4074,20 @@
       </c>
       <c r="D147" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>375</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3707,7 +3707,11 @@
           <t>梅柳齊娜</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>美露莘</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4396,6 +4400,26 @@
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>377</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Atlasunmappedclass</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>ソドムズビースト／ドラコー</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3735,7 +3735,11 @@
           <t>光之高揚斯卡婭</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>光之高揚斯卡婭</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3759,7 +3763,11 @@
           <t>奧伯龍</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>奧伯隆</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4018,7 +4026,11 @@
           <t>スーパーバニヤン</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>超級班揚</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr"/>
     </row>
     <row r="131">
@@ -4038,7 +4050,11 @@
           <t>コンスタンティノス11世</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>君士坦丁十一世</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -4410,7 +4426,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Atlasunmappedclass</t>
+          <t>Beast</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4420,6 +4436,26 @@
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>380</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Assassin</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>果心居士</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3791,7 +3791,11 @@
           <t>沖田總司〔Alter〕</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>沖田總司〔Alter〕</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3815,7 +3819,11 @@
           <t>迦摩</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>迦摩</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4074,7 +4082,11 @@
           <t>シャルルマーニュ</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>查理曼</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr"/>
     </row>
     <row r="133">
@@ -4094,7 +4106,11 @@
           <t>ジェームズ・モリアーティ</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>詹姆斯·莫里亞蒂</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -4456,6 +4472,46 @@
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>381</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>ビーマ</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>383</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>ドゥルガー</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4130,7 +4130,11 @@
           <t>曲亭馬琴</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>曲亭馬琴</t>
+        </is>
+      </c>
       <c r="F134" t="inlineStr"/>
     </row>
     <row r="135">
@@ -4150,7 +4154,11 @@
           <t>源為朝</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>源爲朝</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
     </row>
     <row r="136">
@@ -4512,6 +4520,46 @@
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>384</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>メドゥーサ</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>385</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Caster</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>雨の魔女トネリコ</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3847,7 +3847,11 @@
           <t>雅克·德·莫萊</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>雅克．德．莫萊</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3871,7 +3875,11 @@
           <t>出雲阿國</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>出雲阿國</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3895,7 +3903,11 @@
           <t>坂本龍馬</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>坂本龍馬</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4178,7 +4190,11 @@
           <t>アーキタイプ：アース</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Archetype：Earth</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -4198,7 +4214,11 @@
           <t>レディ・アヴァロン</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>阿瓦隆女士</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
@@ -4218,7 +4238,11 @@
           <t>伊吹童子</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>伊吹童子</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -4238,7 +4262,11 @@
           <t>スカサハ＝スカディ</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>斯卡哈·斯卡蒂</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr"/>
     </row>
     <row r="140">
@@ -4258,7 +4286,11 @@
           <t>千利休</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>千利休</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -4278,7 +4310,11 @@
           <t>呼延灼</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>吾綽</t>
+        </is>
+      </c>
       <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
@@ -4560,6 +4596,66 @@
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>386</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Berserker</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>アルトリア・キャスター</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>390</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Ruler</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>メリュジーヌ</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>393</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Foreigner</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>ワンジナ</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3931,7 +3931,11 @@
           <t>太公望</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>太公望</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3955,7 +3959,11 @@
           <t>Beast Ⅳ</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Beast Ⅳ</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3979,7 +3987,11 @@
           <t>暗之高揚斯卡婭</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>暗之高揚斯卡婭</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4003,7 +4015,11 @@
           <t>馬納南·麥克·利爾〔巴澤特〕</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>馬納南．麥克．利爾〔芭潔特〕</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4334,7 +4350,11 @@
           <t>ブリトマート</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>布里託瑪特</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
@@ -4354,7 +4374,11 @@
           <t>言峰綺礼</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>言峯綺禮</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr"/>
     </row>
     <row r="144">
@@ -4656,6 +4680,86 @@
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>394</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>プトレマイオス</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>397</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>武田晴信</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>400</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Ruler</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>上杉謙信</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>402</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>ヤマトタケル</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4043,7 +4043,11 @@
           <t>徵氏姐妹</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>徵氏姐妹</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4067,7 +4071,11 @@
           <t>超級班揚</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>超級班揚</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4398,7 +4406,11 @@
           <t>ニトクリス〔オルタ〕</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>尼託克麗絲〔Alter〕</t>
+        </is>
+      </c>
       <c r="F144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -4418,7 +4430,11 @@
           <t>テスカトリポカ</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>特斯卡特利波卡</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -4438,7 +4454,11 @@
           <t>ククルカン</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>庫庫爾坎</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -4458,7 +4478,11 @@
           <t>女教皇ヨハンナ</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>女教皇若安</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -4760,6 +4784,46 @@
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>403</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Avenger</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>源頼光／丑御前</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>406</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>アンドロメダ</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
